--- a/Dataset/variables_table.xlsx
+++ b/Dataset/variables_table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rtxusers-my.sharepoint.us/personal/e40000978_adxuser_com/Documents/Projects/2024/GANs_CyberSecurity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/azd6013_psu_edu/Documents/AI894/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{FA46ABBB-A30A-406A-B4CC-08C2CF6A7AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B302D61-D031-4B96-8919-1A7194E35313}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{BBB06B2E-009E-4DEC-A59E-869844D6BA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFA5349B-AFCF-425F-AC81-8506159D9B1F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{720BD96C-6B5B-4AA3-A947-D52B45385134}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{720BD96C-6B5B-4AA3-A947-D52B45385134}"/>
   </bookViews>
   <sheets>
     <sheet name="variables_table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">variables_table!$A$1:$D$86</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">variables_table!$A$1:$D$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="178">
   <si>
     <t>Variable Name</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Missing Values</t>
   </si>
   <si>
-    <t>Variable 1</t>
-  </si>
-  <si>
     <t>Feature</t>
   </si>
   <si>
@@ -335,160 +332,6 @@
   </si>
   <si>
     <r>
-      <t>id.orig_p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: This likely represents the originating port number of the connection. Port numbers are used to identify specific processes or services on a host.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>id.resp_p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: This likely represents the responding port number of the connection, which is the port number that the destination host is using to listen for incoming requests.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>proto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: This column probably contains the protocol used for the connection, such as TCP, UDP, or ICMP.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: This might represent the application layer service associated with the connection (e.g., HTTP, FTP, SSH).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>flow_duration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: This would be the total duration of the network flow during the capture window, usually measured in seconds or milliseconds.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>fwd_pkts_tot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: The total number of packets sent in the forward direction, from the source to the destination.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>bwd_pkts_tot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: The total number of packets sent in the backward direction, from the destination back to the source.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>fwd_data_pkts_tot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: The total number of forward direction packets that contain data payload as opposed to control or protocol-handling packets.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>bwd_data_pkts_tot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: The total number of backward direction packets that contain data payload.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>fwd_pkts_per_sec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: The rate of packets sent in the forward direction per second.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>bwd_pkts_per_sec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: The rate of packets sent in the backward direction per second.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>flow_pkts_per_sec</t>
     </r>
     <r>
@@ -1508,6 +1351,39 @@
       </rPr>
       <t>: The type of attack that the flow has been labeled with, if any.</t>
     </r>
+  </si>
+  <si>
+    <t>Represents the originating port number of the connection. Port numbers are used to identify specific processes or services on a host.</t>
+  </si>
+  <si>
+    <t>Represents the responding port number of the connection, which is the port number that the destination host is using to listen for incoming requests.</t>
+  </si>
+  <si>
+    <t>Represent the application layer service associated with the connection (e.g., HTTP, FTP, SSH).</t>
+  </si>
+  <si>
+    <t>Contains the protocol used for the connection, such as TCP, UDP, or ICMP.</t>
+  </si>
+  <si>
+    <t>The total duration of the network flow during the capture window, usually measured in seconds or milliseconds.</t>
+  </si>
+  <si>
+    <t>The total number of packets sent in the forward direction, from the source to the destination.</t>
+  </si>
+  <si>
+    <t>The total number of packets sent in the backward direction, from the destination back to the source.</t>
+  </si>
+  <si>
+    <t>The total number of forward direction packets that contain data payload as opposed to control or protocol-handling packets.</t>
+  </si>
+  <si>
+    <t>The total number of backward direction packets that contain data payload.</t>
+  </si>
+  <si>
+    <t>The rate of packets sent in the forward direction per second.</t>
+  </si>
+  <si>
+    <t>The rate of packets sent in the backward direction per second.</t>
   </si>
 </sst>
 </file>
@@ -1555,11 +1431,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1613,8 +1490,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD6EC376-B48C-448F-B59D-3F8310F7F534}" name="variables_table" displayName="variables_table" ref="A1:E86" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E86" xr:uid="{FD6EC376-B48C-448F-B59D-3F8310F7F534}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD6EC376-B48C-448F-B59D-3F8310F7F534}" name="variables_table" displayName="variables_table" ref="A1:E85" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E85" xr:uid="{FD6EC376-B48C-448F-B59D-3F8310F7F534}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A2E3751A-0885-4E5D-AC69-E8163AD20B09}" uniqueName="1" name="Variable Name" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{48AF0697-B426-4621-BCC7-D4919B2F38EC}" uniqueName="2" name="Role" queryTableFieldId="2" dataDxfId="3"/>
@@ -1923,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83590D81-F03C-4292-8FA4-621ED6233B47}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,1463 +1815,1448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3414,4 +3276,10 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7cf48d45-3ddb-4389-a9c1-c115526eb52e}" enabled="0" method="" siteId="{7cf48d45-3ddb-4389-a9c1-c115526eb52e}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/Dataset/variables_table.xlsx
+++ b/Dataset/variables_table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/azd6013_psu_edu/Documents/AI894/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rtxusers-my.sharepoint.us/personal/e40000978_adxuser_com/Documents/Projects/2024/GANs_CyberSecurity/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{BBB06B2E-009E-4DEC-A59E-869844D6BA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFA5349B-AFCF-425F-AC81-8506159D9B1F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{67177B6C-E037-4813-9CC8-2216BD25A79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97CACE29-3E2C-4A13-87F0-4C5A3FBFF43B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{720BD96C-6B5B-4AA3-A947-D52B45385134}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{720BD96C-6B5B-4AA3-A947-D52B45385134}"/>
   </bookViews>
   <sheets>
     <sheet name="variables_table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">variables_table!$A$1:$D$85</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">variables_table!$A$1:$D$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="183">
   <si>
     <t>Variable Name</t>
   </si>
@@ -1384,13 +1384,28 @@
   </si>
   <si>
     <t>The rate of packets sent in the backward direction per second.</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1409,6 +1424,12 @@
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1431,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1439,6 +1460,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1474,12 +1496,17 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{D38ECD51-629A-4202-B6ED-F0CB1312779F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="1">
-    <queryTableFields count="5">
+  <queryTableRefresh nextId="13" unboundColumnsRight="6">
+    <queryTableFields count="10">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column7" tableColumnId="4"/>
+      <queryTableField id="12" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="10"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="11"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="7"/>
       <queryTableField id="6" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
@@ -1490,13 +1517,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD6EC376-B48C-448F-B59D-3F8310F7F534}" name="variables_table" displayName="variables_table" ref="A1:E85" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E85" xr:uid="{FD6EC376-B48C-448F-B59D-3F8310F7F534}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD6EC376-B48C-448F-B59D-3F8310F7F534}" name="variables_table" displayName="variables_table" ref="A1:J86" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J86" xr:uid="{FD6EC376-B48C-448F-B59D-3F8310F7F534}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{A2E3751A-0885-4E5D-AC69-E8163AD20B09}" uniqueName="1" name="Variable Name" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{48AF0697-B426-4621-BCC7-D4919B2F38EC}" uniqueName="2" name="Role" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{47D7CF4E-D689-49F1-8D24-005C95ED0F3A}" uniqueName="3" name="Type" queryTableFieldId="3" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{EA089D8F-6811-48E0-A0C0-38580008F471}" uniqueName="4" name="Missing Values" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{0D009E3D-F282-42B8-A0E7-6E1D752A51C8}" uniqueName="9" name="count" queryTableFieldId="12"/>
+    <tableColumn id="10" xr3:uid="{0FBACC29-24B0-4318-AE02-7974C8432322}" uniqueName="10" name="mean" queryTableFieldId="11"/>
+    <tableColumn id="11" xr3:uid="{0027C9ED-D229-4DDA-9555-AB4BA1B67715}" uniqueName="11" name="std" queryTableFieldId="10"/>
+    <tableColumn id="8" xr3:uid="{C7532843-5FF4-4BE8-AD4D-FB8C894D5857}" uniqueName="8" name="min" queryTableFieldId="9"/>
+    <tableColumn id="7" xr3:uid="{4B8D09C7-454D-4A7A-A96D-98E91598892E}" uniqueName="7" name="max" queryTableFieldId="8"/>
     <tableColumn id="5" xr3:uid="{74402AF1-5262-4D60-93E0-0406D74E9E7B}" uniqueName="5" name="Feature Description " queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1800,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83590D81-F03C-4292-8FA4-621ED6233B47}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,10 +1843,11 @@
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="238.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="238.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1828,29 +1861,57 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>123117</v>
+      </c>
+      <c r="F2">
+        <v>37035.089248438402</v>
+      </c>
+      <c r="G2">
+        <v>30459.1063668674</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>94658</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1861,30 +1922,60 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3">
+        <v>123117</v>
+      </c>
+      <c r="F3">
+        <v>34639.258737623502</v>
+      </c>
+      <c r="G3">
+        <v>19070.6203537117</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>65535</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>123117</v>
+      </c>
+      <c r="F4">
+        <v>1014.30509190444</v>
+      </c>
+      <c r="G4">
+        <v>5256.3719938630502</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>65389</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1895,47 +1986,62 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>123117</v>
+      </c>
+      <c r="F7">
+        <v>3.80956576999926</v>
+      </c>
+      <c r="G7">
+        <v>130.00540751875599</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>21728.335577999998</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1946,13 +2052,28 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>123117</v>
+      </c>
+      <c r="F8">
+        <v>2.2688255886676898</v>
+      </c>
+      <c r="G8">
+        <v>22.336564997056499</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4345</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1963,13 +2084,28 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>123117</v>
+      </c>
+      <c r="F9">
+        <v>1.9095088411835801</v>
+      </c>
+      <c r="G9">
+        <v>33.0183105905476</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>10112</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1980,98 +2116,188 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10">
+        <v>123117</v>
+      </c>
+      <c r="F10">
+        <v>1.4712184344972601</v>
+      </c>
+      <c r="G10">
+        <v>19.635195816888501</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>4345</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>123117</v>
+      </c>
+      <c r="F11">
+        <v>0.82026040270636802</v>
+      </c>
+      <c r="G11">
+        <v>32.293948342813401</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>10105</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>123117</v>
+      </c>
+      <c r="F12">
+        <v>351806.32766522199</v>
+      </c>
+      <c r="G12">
+        <v>370764.49315168499</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1048576</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>123117</v>
+      </c>
+      <c r="F13">
+        <v>351761.960339966</v>
+      </c>
+      <c r="G13">
+        <v>370801.48473242699</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1048576</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>123117</v>
+      </c>
+      <c r="F14">
+        <v>703568.28800520499</v>
+      </c>
+      <c r="G14">
+        <v>741563.42220761802</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2097152</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>123117</v>
+      </c>
+      <c r="F15">
+        <v>0.85457058587359902</v>
+      </c>
+      <c r="G15">
+        <v>0.33764028166686999</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>6.0878990000000002</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -2082,13 +2308,28 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>123117</v>
+      </c>
+      <c r="F16">
+        <v>53.8923787941551</v>
+      </c>
+      <c r="G16">
+        <v>393.02719472333001</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>69296</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -2099,13 +2340,28 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>123117</v>
+      </c>
+      <c r="F17">
+        <v>19.779396833905899</v>
+      </c>
+      <c r="G17">
+        <v>5.3478685466463798</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>44</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -2116,13 +2372,28 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>123117</v>
+      </c>
+      <c r="F18">
+        <v>20.646636938846701</v>
+      </c>
+      <c r="G18">
+        <v>7.2307063710128698</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>52</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -2133,13 +2404,28 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>123117</v>
+      </c>
+      <c r="F19">
+        <v>46.626899615812597</v>
+      </c>
+      <c r="G19">
+        <v>1028.22857284119</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>323592</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -2150,13 +2436,28 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>123117</v>
+      </c>
+      <c r="F20">
+        <v>17.695915267590902</v>
+      </c>
+      <c r="G20">
+        <v>7.9975769563646999</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>40</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -2167,13 +2468,28 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>123117</v>
+      </c>
+      <c r="F21">
+        <v>18.432677859272001</v>
+      </c>
+      <c r="G21">
+        <v>9.4063201823001208</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>44</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -2184,13 +2500,28 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>123117</v>
+      </c>
+      <c r="F22">
+        <v>0.11560548096525999</v>
+      </c>
+      <c r="G22">
+        <v>0.47501316403431598</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -2201,13 +2532,28 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>123117</v>
+      </c>
+      <c r="F23">
+        <v>0.950867873648643</v>
+      </c>
+      <c r="G23">
+        <v>0.47426201576411903</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -2218,13 +2564,28 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>123117</v>
+      </c>
+      <c r="F24">
+        <v>0.79645377973797205</v>
+      </c>
+      <c r="G24">
+        <v>0.43699806990991003</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -2235,13 +2596,28 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>123117</v>
+      </c>
+      <c r="F25">
+        <v>0.35133247236368598</v>
+      </c>
+      <c r="G25">
+        <v>3.9516269497656999</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>864</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -2252,13 +2628,28 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>123117</v>
+      </c>
+      <c r="F26">
+        <v>0.39363369802707898</v>
+      </c>
+      <c r="G26">
+        <v>6.0074425139519096</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1446</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -2269,13 +2660,28 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>123117</v>
+      </c>
+      <c r="F27">
+        <v>2.67773743674715</v>
+      </c>
+      <c r="G27">
+        <v>41.654868351309503</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>11772</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -2286,13 +2692,28 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>123117</v>
+      </c>
+      <c r="F28">
+        <v>1.6293444447151799E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.12660212597387999</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -2303,13 +2724,28 @@
       <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>123117</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -2320,897 +2756,1692 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30">
+        <v>123117</v>
+      </c>
+      <c r="F30">
+        <v>1.0071720396046E-3</v>
+      </c>
+      <c r="G30">
+        <v>4.4688938167524499E-2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>123117</v>
+      </c>
+      <c r="F31">
+        <v>6.98522543596741E-4</v>
+      </c>
+      <c r="G31">
+        <v>3.1471374935175003E-2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>123117</v>
+      </c>
+      <c r="F32">
+        <v>96.256073491069401</v>
+      </c>
+      <c r="G32">
+        <v>45.274995526034502</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1097</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>123117</v>
+      </c>
+      <c r="F33">
+        <v>120.749132938586</v>
+      </c>
+      <c r="G33">
+        <v>121.299738437667</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1420</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>123117</v>
+      </c>
+      <c r="F34">
+        <v>221.51910784050901</v>
+      </c>
+      <c r="G34">
+        <v>4820.4006072418797</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>747340</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>123117</v>
+      </c>
+      <c r="F35">
+        <v>100.523827069738</v>
+      </c>
+      <c r="G35">
+        <v>46.0978155368608</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1319.3654389999999</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>123117</v>
+      </c>
+      <c r="F36">
+        <v>8.1077682500791894</v>
+      </c>
+      <c r="G36">
+        <v>45.0418973058676</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>731.579342</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>43</v>
       </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>123117</v>
+      </c>
+      <c r="F37">
+        <v>3.81752316901808</v>
+      </c>
+      <c r="G37">
+        <v>19.611199507798101</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1357</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>123117</v>
+      </c>
+      <c r="F38">
+        <v>52.405004995248397</v>
+      </c>
+      <c r="G38">
+        <v>231.30534606095301</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>5124</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>123117</v>
+      </c>
+      <c r="F39">
+        <v>512.998091246537</v>
+      </c>
+      <c r="G39">
+        <v>42441.432935422097</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>13610415</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>123117</v>
+      </c>
+      <c r="F40">
+        <v>18.786781843782698</v>
+      </c>
+      <c r="G40">
+        <v>83.483057943438695</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1457.0526319999999</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>47</v>
       </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>123117</v>
+      </c>
+      <c r="F41">
+        <v>20.553025422305598</v>
+      </c>
+      <c r="G41">
+        <v>93.397596070882202</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1506.0118749999999</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>123117</v>
+      </c>
+      <c r="F42">
+        <v>13.5544400854471</v>
+      </c>
+      <c r="G42">
+        <v>35.472226627738202</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1097</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>123117</v>
+      </c>
+      <c r="F43">
+        <v>148.510904261799</v>
+      </c>
+      <c r="G43">
+        <v>218.23239851277901</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>5124</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>50</v>
       </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>123117</v>
+      </c>
+      <c r="F44">
+        <v>734.51719908704695</v>
+      </c>
+      <c r="G44">
+        <v>42965.991707543399</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>13610585</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>51</v>
       </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>123117</v>
+      </c>
+      <c r="F45">
+        <v>65.010194179950702</v>
+      </c>
+      <c r="G45">
+        <v>50.412145014640899</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1156.084685</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>52</v>
       </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>123117</v>
+      </c>
+      <c r="F46">
+        <v>76.041653888666801</v>
+      </c>
+      <c r="G46">
+        <v>74.019903184316703</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>924.65195800000004</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>53</v>
       </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>123117</v>
+      </c>
+      <c r="F47">
+        <v>8843.2660074566993</v>
+      </c>
+      <c r="G47">
+        <v>1226520.65105577</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>300252571.10595697</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>54</v>
       </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>123117</v>
+      </c>
+      <c r="F48">
+        <v>1721565.5656119201</v>
+      </c>
+      <c r="G48">
+        <v>9229084.8334116805</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>300252571.10595697</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>55</v>
       </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>123117</v>
+      </c>
+      <c r="F49">
+        <v>3780208.4591195602</v>
+      </c>
+      <c r="G49">
+        <v>129967463.12494799</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>21728335577.964699</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>56</v>
       </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>123117</v>
+      </c>
+      <c r="F50">
+        <v>237357.499908267</v>
+      </c>
+      <c r="G50">
+        <v>1895354.23084115</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>300252571.10595697</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>57</v>
       </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>123117</v>
+      </c>
+      <c r="F51">
+        <v>577557.39029434801</v>
+      </c>
+      <c r="G51">
+        <v>3204812.8439656501</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>212296532.15700299</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>58</v>
       </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>123117</v>
+      </c>
+      <c r="F52">
+        <v>3764.84870011783</v>
+      </c>
+      <c r="G52">
+        <v>226314.67670320501</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>43196219.920000002</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>59</v>
       </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>123117</v>
+      </c>
+      <c r="F53">
+        <v>407726.68513055402</v>
+      </c>
+      <c r="G53">
+        <v>4288635.7252881601</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>300028178.93028301</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>60</v>
       </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>123117</v>
+      </c>
+      <c r="F54">
+        <v>1779892.55015312</v>
+      </c>
+      <c r="G54">
+        <v>91211956.423734605</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>18761168572.902599</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>61</v>
       </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>123117</v>
+      </c>
+      <c r="F55">
+        <v>87652.131002384194</v>
+      </c>
+      <c r="G55">
+        <v>1097455.5593467599</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>150148934.48352799</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>62</v>
       </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>123117</v>
+      </c>
+      <c r="F56">
+        <v>147480.26161470299</v>
+      </c>
+      <c r="G56">
+        <v>1784790.9716386099</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>211961260.21483299</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>63</v>
       </c>
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>123117</v>
+      </c>
+      <c r="F57">
+        <v>4283.0793028043499</v>
+      </c>
+      <c r="G57">
+        <v>254491.00112862699</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>43510041.950000003</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>123117</v>
+      </c>
+      <c r="F58">
+        <v>1725999.05940207</v>
+      </c>
+      <c r="G58">
+        <v>9250248.6710502896</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>299999988.07907099</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="B58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>123117</v>
+      </c>
+      <c r="F59">
+        <v>3810575.0099471598</v>
+      </c>
+      <c r="G59">
+        <v>130005683.175871</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>21728335577.964699</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>66</v>
       </c>
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>123117</v>
+      </c>
+      <c r="F60">
+        <v>139654.485985893</v>
+      </c>
+      <c r="G60">
+        <v>874802.64151865395</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>72835758.209229007</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>67</v>
       </c>
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>123117</v>
+      </c>
+      <c r="F61">
+        <v>450136.207827001</v>
+      </c>
+      <c r="G61">
+        <v>2506219.6312989099</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>134122073.26484101</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>68</v>
       </c>
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>123117</v>
+      </c>
+      <c r="F62">
+        <v>41053451.791947097</v>
+      </c>
+      <c r="G62">
+        <v>44857059.625514597</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>125829120</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>69</v>
       </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>123117</v>
+      </c>
+      <c r="F63">
+        <v>1.55171492457581</v>
+      </c>
+      <c r="G63">
+        <v>2.7169570371765599</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>276.83333299999998</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>70</v>
       </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>123117</v>
+      </c>
+      <c r="F64">
+        <v>1.3377180370947901</v>
+      </c>
+      <c r="G64">
+        <v>6.0074131066474603</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1685.33333299999</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>71</v>
       </c>
-      <c r="B64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="1" t="s">
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>123117</v>
+      </c>
+      <c r="F65">
+        <v>136.479504452561</v>
+      </c>
+      <c r="G65">
+        <v>428.90535709579598</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>52067.75</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="B65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="1" t="s">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>123117</v>
+      </c>
+      <c r="F66">
+        <v>217.517813576809</v>
+      </c>
+      <c r="G66">
+        <v>7580.7533342571596</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>2268402.5</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>73</v>
       </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>123117</v>
+      </c>
+      <c r="F67">
+        <v>19.249936844676199</v>
+      </c>
+      <c r="G67">
+        <v>1974.6178100923401</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>465095</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>74</v>
       </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>123117</v>
+      </c>
+      <c r="F68">
+        <v>155.23368031036301</v>
+      </c>
+      <c r="G68">
+        <v>19592.952252093299</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>6805207.5</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>75</v>
       </c>
-      <c r="B68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>123117</v>
+      </c>
+      <c r="F69">
+        <v>2.41439159173794E-2</v>
+      </c>
+      <c r="G69">
+        <v>1.4847586566545901</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>343</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>76</v>
       </c>
-      <c r="B69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>123117</v>
+      </c>
+      <c r="F70">
+        <v>0.13111282891070999</v>
+      </c>
+      <c r="G70">
+        <v>14.5465453451091</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>5052.5</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="B70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>123117</v>
+      </c>
+      <c r="F71">
+        <v>3835.74617067185</v>
+      </c>
+      <c r="G71">
+        <v>308033.44567153399</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>46336283.320157997</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>78</v>
       </c>
-      <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>123117</v>
+      </c>
+      <c r="F72">
+        <v>48414.6024247389</v>
+      </c>
+      <c r="G72">
+        <v>685248.03695157496</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>28300874.036660001</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>79</v>
       </c>
-      <c r="B72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="1" t="s">
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>123117</v>
+      </c>
+      <c r="F73">
+        <v>133154.55258254701</v>
+      </c>
+      <c r="G73">
+        <v>1042331.94887738</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>312507973.90937799</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>80</v>
       </c>
-      <c r="B73" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="1" t="s">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>123117</v>
+      </c>
+      <c r="F74">
+        <v>178589.77091717601</v>
+      </c>
+      <c r="G74">
+        <v>3011783.9235072099</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>848097908.97369397</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>81</v>
       </c>
-      <c r="B74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>123117</v>
+      </c>
+      <c r="F75">
+        <v>292930.81329288398</v>
+      </c>
+      <c r="G75">
+        <v>14452791.8406584</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>2945221457.7198</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>82</v>
       </c>
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>123117</v>
+      </c>
+      <c r="F76">
+        <v>148135.36002188001</v>
+      </c>
+      <c r="G76">
+        <v>1613006.85539481</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>437493061.90013897</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>83</v>
       </c>
-      <c r="B76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>123117</v>
+      </c>
+      <c r="F77">
+        <v>23535.991798632102</v>
+      </c>
+      <c r="G77">
+        <v>1477934.7834046299</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>477486235.57214397</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>84</v>
       </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>123117</v>
+      </c>
+      <c r="F78">
+        <v>1616654.9809946599</v>
+      </c>
+      <c r="G78">
+        <v>8809395.6183990501</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>299999988.07907099</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>85</v>
       </c>
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>123117</v>
+      </c>
+      <c r="F79">
+        <v>1701955.5761376701</v>
+      </c>
+      <c r="G79">
+        <v>9252336.5842157304</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>299999988.07907099</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>86</v>
       </c>
-      <c r="B79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>123117</v>
+      </c>
+      <c r="F80">
+        <v>3517644.1966547901</v>
+      </c>
+      <c r="G80">
+        <v>122950780.405706</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>20967770208.1203</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>87</v>
       </c>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>123117</v>
+      </c>
+      <c r="F81">
+        <v>1664984.7556807999</v>
+      </c>
+      <c r="G81">
+        <v>9007063.9859145209</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>299999988.07907099</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>88</v>
       </c>
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>123117</v>
+      </c>
+      <c r="F82">
+        <v>45501.831692022402</v>
+      </c>
+      <c r="G82">
+        <v>1091361.4017153999</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>120802870.62807301</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>89</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>90</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -3221,13 +4452,28 @@
       <c r="D83" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>123117</v>
+      </c>
+      <c r="F83">
+        <v>6118.9051227693899</v>
+      </c>
+      <c r="G83">
+        <v>18716.313860844599</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>65535</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -3238,28 +4484,76 @@
       <c r="D84" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84">
+        <v>123117</v>
+      </c>
+      <c r="F84">
+        <v>2739.7760179341599</v>
+      </c>
+      <c r="G84">
+        <v>10018.8485344774</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>65535</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>123117</v>
+      </c>
+      <c r="F85">
+        <v>751.64751415320302</v>
+      </c>
+      <c r="G85">
+        <v>6310.1838425922397</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>65535</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>92</v>
       </c>
-      <c r="B85" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
         <v>10</v>
       </c>
-      <c r="D85" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3280,6 +4574,7 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7a18110d-ef9b-4274-acef-e62ab0fe28ed}" enabled="0" method="" siteId="{7a18110d-ef9b-4274-acef-e62ab0fe28ed}" removed="1"/>
   <clbl:label id="{7cf48d45-3ddb-4389-a9c1-c115526eb52e}" enabled="0" method="" siteId="{7cf48d45-3ddb-4389-a9c1-c115526eb52e}" removed="1"/>
 </clbl:labelList>
 </file>